--- a/biology/Zoologie/Conus_hyaena/Conus_hyaena.xlsx
+++ b/biology/Zoologie/Conus_hyaena/Conus_hyaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus hyaena est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille d'une coquille adulte varie entre 29 mm et 80,5 mm. La coquille est quelque peu gonflée au-dessus. La spire est striée. La couleur de la coquille est brun jaunâtre clair, variée par des stries plus foncées, et de faibles lignes ou rangées de taches tournantes, souvent indistinctement plus claires au milieu[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille d'une coquille adulte varie entre 29 mm et 80,5 mm. La coquille est quelque peu gonflée au-dessus. La spire est striée. La couleur de la coquille est brun jaunâtre clair, variée par des stries plus foncées, et de faibles lignes ou rangées de taches tournantes, souvent indistinctement plus claires au milieu.
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Indien au large de Madagascar, dans le Golfe du Bengale, et dans l'océan Pacifique au large des Philippines et de l'Indonésie ; dans la mer de Chine méridionale.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, Cette espèce est présente depuis la côte nord-ouest de l'Inde jusqu'au Sri Lanka, puis vers l'est jusqu'en Indonésie et vers le nord jusqu'à Hong Kong. Sa sous-espèce, Conus hyaena concolor, est connue des îles Salomon et de la Papouasie-Nouvelle-Guinée, et a été récemment signalée dans la zone indonésienne. Cette espèce est largement distribuée dans l'Indo-Pacifique et il n'y a pas de menaces actuelles connues. Elle est donc classée dans la catégorie préoccupation mineure[2].
 </t>
         </is>
       </c>
@@ -573,23 +587,134 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, Cette espèce est présente depuis la côte nord-ouest de l'Inde jusqu'au Sri Lanka, puis vers l'est jusqu'en Indonésie et vers le nord jusqu'à Hong Kong. Sa sous-espèce, Conus hyaena concolor, est connue des îles Salomon et de la Papouasie-Nouvelle-Guinée, et a été récemment signalée dans la zone indonésienne. Cette espèce est largement distribuée dans l'Indo-Pacifique et il n'y a pas de menaces actuelles connues. Elle est donc classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_hyaena</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_hyaena</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus hyaena a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass (1731-1803) dans la publication intitulée « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798)[3],[4].
-Synonymes
-Conus (Rhizoconus) hyaena Hwass, 1792 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus hyaena a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass (1731-1803) dans la publication intitulée « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_hyaena</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_hyaena</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Rhizoconus) hyaena Hwass, 1792 · appellation alternative
 Conus halli da Motta, 1983 · non accepté
 Conus incarnatus Reeve, 1844 · non accepté
 Conus kobelti Löbbecke, 1882 · non accepté
 Conus mutabilis Reeve, 1844 · non accepté
 Conus tribunus Crosse, 1865 · non accepté
-Rhizoconus hyaena (Hwass, 1792) · non accepté
-Sous-espèces
-Conus hyaena concolor G. B. Sowerby II, 1841
+Rhizoconus hyaena (Hwass, 1792) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_hyaena</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_hyaena</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Conus hyaena concolor G. B. Sowerby II, 1841
 Conus hyaena hyaena Hwass, 1792</t>
         </is>
       </c>
